--- a/01-Team14-SourceCode/src/main/java/org/example/newClass.xlsx
+++ b/01-Team14-SourceCode/src/main/java/org/example/newClass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\active\automation\Team14-SourceCode\src\main\java\org\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\active\automation\Team14-SourceCode\223-DIT0280-01-Team14\223-DIT0280-01-Team14\01-Team14-SourceCode\src\main\java\org\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFAC1F3-922D-4722-8EB3-67CDBA672BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20A7BD-6FBC-4BD1-9B7B-C595D39A1BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>16 Product(s) found</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>$ 0.00</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,6 +425,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
